--- a/PANDA — beta/Panda.xlsx
+++ b/PANDA — beta/Panda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIS mapper\modding\scenery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIS mapper\modding\scenery\PANDA — workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="203">
   <si>
     <t>Panda</t>
   </si>
@@ -296,15 +296,6 @@
     <t>Stress -5 (per game)</t>
   </si>
   <si>
-    <t>Child molester</t>
-  </si>
-  <si>
-    <t>You can't control yourself - (stealing from kids)</t>
-  </si>
-  <si>
-    <t>Stress -15</t>
-  </si>
-  <si>
     <t>Masochist</t>
   </si>
   <si>
@@ -330,15 +321,6 @@
   </si>
   <si>
     <t>Necrophile</t>
-  </si>
-  <si>
-    <t>Zoophile</t>
-  </si>
-  <si>
-    <t>You like when they bark (killing animals)</t>
-  </si>
-  <si>
-    <t>Stress -5 (per enemy)</t>
   </si>
   <si>
     <t>Pacifist</t>
@@ -865,12 +847,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1153,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
@@ -1190,33 +1172,33 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P1" t="s">
         <v>20</v>
       </c>
       <c r="AE1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="I2" s="21" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
@@ -1229,35 +1211,35 @@
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>207</v>
+      <c r="H3" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="R3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="S3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="T3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="U3" t="s">
         <v>77</v>
       </c>
       <c r="W3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Z3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AC3" s="7"/>
       <c r="AD3" s="8"/>
@@ -1296,7 +1278,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="11"/>
       <c r="AE4" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
@@ -1338,7 +1320,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>1</v>
@@ -1358,37 +1340,37 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI5" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK5" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AF5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH5" s="11" t="s">
+      <c r="AL5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM5" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN5" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AI5" s="11" t="s">
+      <c r="AO5" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK5" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM5" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN5" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO5" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="11"/>
@@ -1422,7 +1404,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="12"/>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>1</v>
@@ -1439,7 +1421,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AF6" s="3" t="s">
         <v>1</v>
@@ -1489,7 +1471,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="12"/>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>1</v>
@@ -1506,7 +1488,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AF7" s="3" t="s">
         <v>1</v>
@@ -1556,7 +1538,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="12"/>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>1</v>
@@ -1573,7 +1555,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="11"/>
       <c r="AE8" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>1</v>
@@ -1613,7 +1595,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="12"/>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>1</v>
@@ -1672,7 +1654,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="12"/>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>1</v>
@@ -1690,12 +1672,12 @@
         <v>-10</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AC10" s="10"/>
       <c r="AD10" s="11"/>
       <c r="AE10" s="11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
@@ -1739,7 +1721,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="12"/>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>1</v>
@@ -1757,14 +1739,14 @@
         <v>-15</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AC11" s="10"/>
       <c r="AD11" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AE11" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF11" s="3" t="s">
         <v>1</v>
@@ -1803,10 +1785,10 @@
       <c r="M12" s="12"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AE12" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF12" s="3" t="s">
         <v>1</v>
@@ -1858,7 +1840,7 @@
       </c>
       <c r="M13" s="12"/>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>1</v>
@@ -1877,7 +1859,7 @@
         <v>77</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF13" s="3" t="s">
         <v>1</v>
@@ -1917,7 +1899,7 @@
       <c r="L14" s="11"/>
       <c r="M14" s="12"/>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>1</v>
@@ -1976,7 +1958,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="12"/>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>1</v>
@@ -1993,7 +1975,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AF15" s="11"/>
       <c r="AG15" s="11"/>
@@ -2013,8 +1995,8 @@
       <c r="AU15" s="12"/>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>207</v>
+      <c r="A16" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -2037,7 +2019,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="12"/>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>1</v>
@@ -2053,10 +2035,10 @@
       </c>
       <c r="AC16" s="10"/>
       <c r="AD16" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AE16" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AF16" s="3" t="s">
         <v>1</v>
@@ -2108,7 +2090,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="12"/>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>1</v>
@@ -2124,10 +2106,10 @@
       </c>
       <c r="AC17" s="10"/>
       <c r="AD17" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AE17" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AF17" s="3" t="s">
         <v>1</v>
@@ -2179,7 +2161,7 @@
       <c r="L18" s="11"/>
       <c r="M18" s="12"/>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>1</v>
@@ -2198,7 +2180,7 @@
         <v>77</v>
       </c>
       <c r="AE18" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AF18" s="3" t="s">
         <v>1</v>
@@ -2248,7 +2230,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>1</v>
@@ -2263,7 +2245,7 @@
         <v>-10</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AC19" s="10"/>
       <c r="AD19" s="11"/>
@@ -2309,37 +2291,37 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="12"/>
-      <c r="O20" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="P20" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="25" t="s">
+      <c r="O20" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20" s="24">
         <v>50</v>
       </c>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25">
+      <c r="S20" s="24"/>
+      <c r="T20" s="24">
         <v>-40</v>
       </c>
-      <c r="U20" s="25">
+      <c r="U20" s="24">
         <v>-10</v>
       </c>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA20" s="25"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA20" s="24"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
@@ -2384,10 +2366,10 @@
       <c r="M21" s="12"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AE21" s="11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AF21" s="3" t="s">
         <v>1</v>
@@ -2409,7 +2391,7 @@
         <v>-1</v>
       </c>
       <c r="AO21" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP21" s="11"/>
       <c r="AQ21" s="11"/>
@@ -2433,7 +2415,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="12"/>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>1</v>
@@ -2446,10 +2428,10 @@
       </c>
       <c r="AC22" s="10"/>
       <c r="AD22" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AE22" s="11" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AF22" s="3" t="s">
         <v>1</v>
@@ -2471,7 +2453,7 @@
       <c r="AM22" s="11"/>
       <c r="AN22" s="11"/>
       <c r="AO22" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP22" s="11"/>
       <c r="AQ22" s="11"/>
@@ -2505,7 +2487,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>1</v>
@@ -2521,7 +2503,7 @@
         <v>77</v>
       </c>
       <c r="AE23" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AF23" s="3" t="s">
         <v>1</v>
@@ -2543,7 +2525,7 @@
       <c r="AM23" s="11"/>
       <c r="AN23" s="11"/>
       <c r="AO23" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP23" s="11"/>
       <c r="AQ23" s="11"/>
@@ -2577,7 +2559,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="12"/>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>1</v>
@@ -2633,7 +2615,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="12"/>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>1</v>
@@ -2645,15 +2627,15 @@
         <v>-100</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AC25" s="10"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AF25" s="11"/>
       <c r="AG25" s="11"/>
@@ -2695,7 +2677,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="12"/>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>1</v>
@@ -2708,10 +2690,10 @@
       </c>
       <c r="AC26" s="10"/>
       <c r="AD26" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AE26" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AF26" s="3" t="s">
         <v>1</v>
@@ -2737,7 +2719,7 @@
         <v>-1</v>
       </c>
       <c r="AO26" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP26" s="11"/>
       <c r="AQ26" s="11"/>
@@ -2747,8 +2729,8 @@
       <c r="AU26" s="12"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>207</v>
+      <c r="A27" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="B27" s="11">
         <v>0</v>
@@ -2770,10 +2752,10 @@
       <c r="M27" s="12"/>
       <c r="AC27" s="10"/>
       <c r="AD27" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AE27" s="11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AF27" s="3" t="s">
         <v>1</v>
@@ -2799,7 +2781,7 @@
         <v>-1</v>
       </c>
       <c r="AO27" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP27" s="11"/>
       <c r="AQ27" s="11"/>
@@ -2809,8 +2791,8 @@
       <c r="AU27" s="12"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>207</v>
+      <c r="A28" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="B28" s="11">
         <v>0</v>
@@ -2837,7 +2819,7 @@
         <v>77</v>
       </c>
       <c r="AE28" s="11" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AF28" s="3" t="s">
         <v>1</v>
@@ -2867,11 +2849,11 @@
         <v>-1</v>
       </c>
       <c r="AO28" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP28" s="11"/>
-      <c r="AQ28" s="23" t="s">
-        <v>185</v>
+      <c r="AQ28" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="AR28" s="11"/>
       <c r="AS28" s="11"/>
@@ -2901,7 +2883,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="12"/>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="T29" t="s">
         <v>9</v>
@@ -2951,7 +2933,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="12"/>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>1</v>
@@ -2960,78 +2942,78 @@
         <v>100</v>
       </c>
       <c r="T30" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="12"/>
-      <c r="P31" s="24" t="s">
+      <c r="P31" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" s="23">
+        <v>100</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="W31" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="Q31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="R31" s="24">
-        <v>100</v>
-      </c>
-      <c r="T31" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="W31" s="24" t="s">
-        <v>206</v>
-      </c>
       <c r="X31" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="12"/>
-      <c r="P32" s="24" t="s">
-        <v>202</v>
+      <c r="P32" s="23" t="s">
+        <v>196</v>
       </c>
       <c r="Q32" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="R32" s="24">
-        <v>100</v>
-      </c>
-      <c r="T32" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="W32" s="24" t="s">
-        <v>206</v>
+      <c r="R32" s="23">
+        <v>100</v>
+      </c>
+      <c r="T32" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="W32" s="23" t="s">
+        <v>200</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="24">
-        <v>100</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>204</v>
+      <c r="B33" s="23">
+        <v>100</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>198</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="24" t="s">
-        <v>205</v>
+      <c r="E33" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="24" t="s">
-        <v>208</v>
+      <c r="J33" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
@@ -3168,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
@@ -3177,18 +3159,18 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
       <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
@@ -3258,8 +3240,8 @@
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
-        <v>207</v>
+      <c r="A46" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="B46" s="11">
         <v>0</v>
@@ -3339,31 +3321,7 @@
       <c r="M48" s="12"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="11">
-        <v>100</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M49" s="12"/>
+      <c r="A49" s="13"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
@@ -3373,18 +3331,18 @@
         <v>100</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
@@ -3400,22 +3358,22 @@
         <v>100</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K51" s="11"/>
       <c r="L51" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M51" s="12"/>
     </row>
@@ -3427,18 +3385,18 @@
         <v>100</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K52" s="11"/>
       <c r="L52" s="11" t="s">
@@ -3447,30 +3405,18 @@
       <c r="M52" s="12"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="11">
-        <v>100</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="A53" s="13"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>103</v>
-      </c>
+      <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
-      <c r="J53" s="11" t="s">
-        <v>104</v>
-      </c>
+      <c r="J53" s="11"/>
       <c r="K53" s="11"/>
-      <c r="L53" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="L53" s="11"/>
       <c r="M53" s="12"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3481,22 +3427,22 @@
         <v>50</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K54" s="11"/>
       <c r="L54" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M54" s="12"/>
     </row>
@@ -3508,18 +3454,18 @@
         <v>50</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
       <c r="J55" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K55" s="17"/>
       <c r="L55" s="17" t="s">
@@ -3531,11 +3477,11 @@
       <c r="A56" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="24">
-        <v>100</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>194</v>
+      <c r="B56" s="23">
+        <v>100</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>188</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
@@ -3543,8 +3489,8 @@
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="24" t="s">
-        <v>197</v>
+      <c r="J56" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
@@ -3554,11 +3500,11 @@
       <c r="A57" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="23">
         <v>50</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>199</v>
+      <c r="C57" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -3575,11 +3521,11 @@
       <c r="A58" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="24">
-        <v>100</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>195</v>
+      <c r="B58" s="23">
+        <v>100</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
@@ -3587,8 +3533,8 @@
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="24" t="s">
-        <v>196</v>
+      <c r="J58" s="23" t="s">
+        <v>190</v>
       </c>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
@@ -3596,7 +3542,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3607,13 +3553,13 @@
         <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3621,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3629,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3637,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3645,27 +3591,27 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
